--- a/results_short.xlsx
+++ b/results_short.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7da5c97e9815dc19/openProjects/fibroOBE/RUNNING/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\OneDrive\openProjects\fibroOBE\RUNNING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89AE6944-CAB6-463A-82CE-A56C50601201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{89AE6944-CAB6-463A-82CE-A56C50601201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2A25206C-30B3-43AC-9596-EBAF256AAC60}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18130" windowHeight="10150" xr2:uid="{14EFD00B-E83B-4C4C-B207-BCFD04513C47}"/>
+    <workbookView xWindow="1070" yWindow="650" windowWidth="18130" windowHeight="10150" xr2:uid="{14EFD00B-E83B-4C4C-B207-BCFD04513C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>pain5</t>
+  </si>
+  <si>
+    <t>condition</t>
   </si>
 </sst>
 </file>
@@ -134,13 +137,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,192 +459,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EA3FED-A743-4F3D-8AA7-4C0BB25A37BA}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>6</v>
+      <c r="B2" s="4">
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>6</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>8</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>9</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>10</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>6</v>
+      <c r="B3" s="4">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <v>6</v>
       </c>
       <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3">
         <v>9</v>
       </c>
-      <c r="L3">
-        <v>6</v>
-      </c>
       <c r="M3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>6</v>
+      <c r="B4" s="4">
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>14</v>
       </c>
-      <c r="L4">
-        <v>7</v>
-      </c>
       <c r="M4">
         <v>7</v>
       </c>
@@ -650,25 +663,28 @@
       <c r="O4">
         <v>7</v>
       </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>6</v>
+      <c r="B5" s="4">
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -677,19 +693,19 @@
         <v>6</v>
       </c>
       <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
       <c r="K5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N5">
         <v>6</v>
@@ -697,40 +713,43 @@
       <c r="O5">
         <v>6</v>
       </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>6</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <v>7</v>
@@ -741,84 +760,90 @@
       <c r="N6">
         <v>7</v>
       </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7">
         <v>6</v>
       </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>6</v>
+      <c r="B8" s="4">
+        <v>1</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L8">
         <v>8</v>
@@ -827,77 +852,83 @@
         <v>8</v>
       </c>
       <c r="N8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" s="4">
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>7</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>6</v>
+      <c r="B10" s="4">
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -909,21 +940,24 @@
         <v>6</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>20</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
       </c>
       <c r="M10">
         <v>10</v>
       </c>
       <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
         <v>9</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>8</v>
       </c>
     </row>

--- a/results_short.xlsx
+++ b/results_short.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\OneDrive\openProjects\fibroOBE\RUNNING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{89AE6944-CAB6-463A-82CE-A56C50601201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2A25206C-30B3-43AC-9596-EBAF256AAC60}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{89AE6944-CAB6-463A-82CE-A56C50601201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{1F5BE0A1-FBE4-4B0E-9F43-5709B572183E}"/>
   <bookViews>
     <workbookView xWindow="1070" yWindow="650" windowWidth="18130" windowHeight="10150" xr2:uid="{14EFD00B-E83B-4C4C-B207-BCFD04513C47}"/>
   </bookViews>
@@ -160,6 +160,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EA3FED-A743-4F3D-8AA7-4C0BB25A37BA}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M4">
         <v>7</v>
@@ -946,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M10">
         <v>10</v>
